--- a/datos_grafo.xlsx
+++ b/datos_grafo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Node</t>
   </si>
@@ -35,6 +35,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Nodo 1</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
     <t>Nodo 4</t>
   </si>
   <si>
+    <t>Nodo 5</t>
+  </si>
+  <si>
+    <t>Nodo 6</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
@@ -56,22 +68,49 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>725</t>
+    <t>500</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -435,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -462,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -478,7 +517,23 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,13 +551,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -513,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,40 +590,139 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/datos_grafo.xlsx
+++ b/datos_grafo.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
-    <sheet name="Edges" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Node</t>
   </si>
@@ -35,12 +34,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Nodo 1</t>
   </si>
   <si>
@@ -51,66 +44,6 @@
   </si>
   <si>
     <t>Nodo 4</t>
-  </si>
-  <si>
-    <t>Nodo 5</t>
-  </si>
-  <si>
-    <t>Nodo 6</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>25</t>
   </si>
 </sst>
 </file>
@@ -474,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -501,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -509,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -517,212 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
